--- a/data/trans_dic/P9_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P9_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee tableta en su vivienda actual</t>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,12 +602,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55,68%</t>
+          <t>55,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>54,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>56,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>56,09%</t>
+          <t>56,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,56; 60,11</t>
+          <t>51,14; 59,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49,22; 59,62</t>
+          <t>50,29; 59,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,0; 57,0</t>
+          <t>50,09; 57,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,31; 61,51</t>
+          <t>52,85; 60,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,76; 57,2</t>
+          <t>51,84; 57,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,04; 58,81</t>
+          <t>53,14; 59,12</t>
         </is>
       </c>
     </row>
@@ -681,22 +682,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,66%</t>
+          <t>52,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>53,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,08%</t>
+          <t>45,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,71%</t>
+          <t>50,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>51,77%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,29; 57,43</t>
+          <t>48,02; 57,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,66; 59,52</t>
+          <t>48,13; 58,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,15; 49,05</t>
+          <t>41,28; 49,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,95; 54,19</t>
+          <t>45,38; 54,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,63; 52,09</t>
+          <t>45,58; 52,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,49; 55,36</t>
+          <t>48,28; 55,16</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>42,78%</t>
+          <t>45,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>43,0%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,96; 52,4</t>
+          <t>33,61; 52,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,24; 52,57</t>
+          <t>34,71; 55,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,05; 46,08</t>
+          <t>32,52; 46,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,77; 50,79</t>
+          <t>31,75; 48,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,83; 46,78</t>
+          <t>34,9; 46,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,42; 49,15</t>
+          <t>36,86; 49,83</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,99%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>52,58%</t>
+          <t>52,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>52,81%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>49,84; 55,89</t>
+          <t>49,87; 55,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>49,62; 56,46</t>
+          <t>49,63; 56,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,94; 51,35</t>
+          <t>46,1; 51,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,76; 55,07</t>
+          <t>49,69; 55,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,81; 52,65</t>
+          <t>48,54; 52,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,38; 54,78</t>
+          <t>50,75; 55,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee tableta en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>339.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>410.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>833.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>749.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>913048</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>907483</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>961369</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1031208</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1874417</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1938690</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>838641; 977757</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>831045; 980532</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>897048; 1023151</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>956219; 1093149</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1778595; 1966535</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1839745; 2046743</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>730280</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>732992</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>635631</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>698702</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1365911</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1431694</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>665891; 796303</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>661292; 805923</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>581937; 695410</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>631485; 762883</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1274626; 1454949</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1335183; 1525436</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>180718</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>194077</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>160878</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>164881</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>341596</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>358959</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>142100; 220108</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>146743; 232978</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>133941; 189742</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>130795; 198256</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>291348; 388582</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>307652; 415956</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>739.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>801.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>732.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1540.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1374.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1824046</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1834552</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1757877</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1894791</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3581924</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3729343</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1720237; 1926551</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1711892; 1954161</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1665403; 1851886</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1795275; 2003056</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3427892; 3732939</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3584159; 3894785</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>